--- a/DbLayouts/L8-遵循法令作業/JcicZ053.xlsx
+++ b/DbLayouts/L8-遵循法令作業/JcicZ053.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D41A34-70C4-4C84-92B4-B033EEB57D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EE77B5-ABBF-4952-B4A8-5A1D714E57EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -387,15 +387,6 @@
   <si>
     <t>custRcEq</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>custRcSubEq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubmitKey= , AND CustId= , AND RcDate= </t>
-  </si>
-  <si>
-    <t>CreateDate DESC</t>
   </si>
 </sst>
 </file>
@@ -630,14 +621,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -996,10 +987,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="5" t="s">
         <v>43</v>
       </c>
@@ -1011,8 +1002,8 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
@@ -1024,10 +1015,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="14" t="s">
         <v>77</v>
       </c>
@@ -1039,10 +1030,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="11"/>
@@ -1051,10 +1042,10 @@
       <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
         <v>28</v>
       </c>
@@ -1064,10 +1055,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="14" t="s">
         <v>29</v>
       </c>
@@ -1077,10 +1068,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="14" t="s">
         <v>30</v>
       </c>
@@ -1090,10 +1081,10 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="14" t="s">
         <v>75</v>
       </c>
@@ -1965,15 +1956,9 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>83</v>
-      </c>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
